--- a/biology/Médecine/Canal_de_Schlemm/Canal_de_Schlemm.xlsx
+++ b/biology/Médecine/Canal_de_Schlemm/Canal_de_Schlemm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal de Schlemm, anciennement considéré comme une veine, est une structure annulaire ressemblant à un vaisseau lymphatique située dans l'œil, près du bord antérieur de la sclérotique dans l'angle irido-cornéen.  A travers du trabéculum, qui est juxtaposé, elle permet le drainage de l'humeur aqueuse. Elle abouche ensuite dans les veines épisclérales puis veines ophtalmiques et sinus caverneux.
 Son blocage augmente la tension oculaire, et provoque donc le glaucome.
